--- a/BPS_FH_Dataset/13/phrases.xlsx
+++ b/BPS_FH_Dataset/13/phrases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\13\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F5BC2-29EE-4828-A234-83D7475EEE1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -245,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -589,19 +590,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -618,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>16</v>
       </c>
@@ -635,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>32</v>
       </c>
@@ -652,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>48</v>
       </c>
@@ -669,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>64</v>
       </c>
@@ -686,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>80</v>
       </c>
@@ -703,7 +704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>95.5</v>
       </c>
@@ -720,7 +721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>111.5</v>
       </c>
@@ -737,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>127.5</v>
       </c>
@@ -754,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>143.5</v>
       </c>
@@ -771,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>160</v>
       </c>
@@ -788,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>176</v>
       </c>
@@ -805,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>191.5</v>
       </c>
@@ -822,7 +823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>197.5</v>
       </c>
@@ -839,7 +840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>203.5</v>
       </c>
@@ -856,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>215.5</v>
       </c>
@@ -873,7 +874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>221.5</v>
       </c>
@@ -890,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>227.5</v>
       </c>
@@ -907,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>239.5</v>
       </c>
@@ -924,9 +925,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>236.5</v>
+        <v>263.5</v>
       </c>
       <c r="B20" s="2">
         <v>294</v>
@@ -941,7 +942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>294</v>
       </c>
@@ -958,7 +959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>310</v>
       </c>
@@ -975,7 +976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>326</v>
       </c>
@@ -992,7 +993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>342</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>357.5</v>
       </c>
